--- a/.source/Card/신한카드_김찬식_2025.xlsx
+++ b/.source/Card/신한카드_김찬식_2025.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d251688e3d9c1650/Cursor_AI_Project/MYBCINFO/MYBCCARD/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d251688e3d9c1650/Cursor/MyInfo/.source/Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{461CF327-9BDB-4490-B337-90D17CE9AA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{461CF327-9BDB-4490-B337-90D17CE9AA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F926FF91-943F-42A2-927C-BCCA03D44270}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2227C40-59DC-4E56-A9AD-1C752AE7B72C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C2227C40-59DC-4E56-A9AD-1C752AE7B72C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$198</definedName>
+  </definedNames>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
@@ -333,11 +336,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -435,7 +438,7 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -443,11 +446,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -455,7 +458,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -807,11 +810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690939F6-98E6-4523-8B9D-5ECEEF771B9F}">
   <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="R196" sqref="R196"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
@@ -825,7 +828,7 @@
     <col min="10" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -860,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>45660</v>
       </c>
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>45670</v>
       </c>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>45670</v>
       </c>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>45676</v>
       </c>
@@ -994,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>45691</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>45691</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>45693</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18">
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>45698</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>45698</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>45700</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>45700</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>45700</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>45701</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>45707</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>45707</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>45707</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>45707</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>45707</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>45707</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>45707</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>45707</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>45712</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>45713</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>45713</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>45713</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>45688</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>45721</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>45721</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>45722</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18">
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>45723</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18">
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>45723</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>45724</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>45724</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>45723</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>45726</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>45726</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>45728</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>45729</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>45734</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>45740</v>
       </c>
@@ -2254,12 +2257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>45740</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>45747</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>45716</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>45749</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>45753</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>45755</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>45755</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>45755</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>45755</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>45755</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>45755</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>45755</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18">
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>45758</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18">
+    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>45758</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18">
+    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>45758</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="18">
+    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>45758</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>45758</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>45758</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>45762</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>45762</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>45762</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>45762</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18">
+    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>45763</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18">
+    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>45763</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>45763</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18">
+    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>45764</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>45764</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>45765</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>45765</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>45767</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>45768</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>45747</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>45747</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18">
+    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>45782</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>45784</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18">
+    <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <v>45784</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <v>45784</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18">
+    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>45785</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="6">
         <v>45785</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="6">
         <v>45792</v>
       </c>
@@ -3659,12 +3662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="6">
         <v>45792</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>45792</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>45792</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>45796</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="6">
         <v>45802</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="6">
         <v>45777</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="6">
         <v>45811</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="6">
         <v>45812</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="6">
         <v>45814</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="6">
         <v>45817</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="6">
         <v>45817</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="6">
         <v>45824</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="6">
         <v>45826</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>45828</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="6">
         <v>45838</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="6">
         <v>45838</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>45838</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="6">
         <v>45808</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="6">
         <v>45840</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>45840</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" s="6">
         <v>45845</v>
       </c>
@@ -4399,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>45845</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>45845</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="6">
         <v>45847</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>45853</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" s="6">
         <v>45855</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="6">
         <v>45838</v>
       </c>
@@ -4609,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="6">
         <v>45870</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="6">
         <v>45870</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" s="6">
         <v>45870</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" s="6">
         <v>45870</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="6">
         <v>45872</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18">
+    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A116" s="6">
         <v>45876</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="6">
         <v>45876</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>45885</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="6">
         <v>45886</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" s="6">
         <v>45887</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="6">
         <v>45887</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>45885</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="6">
         <v>45887</v>
       </c>
@@ -5064,12 +5067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G124" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" s="6">
         <v>45888</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" s="6">
         <v>45889</v>
       </c>
@@ -5139,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="6">
         <v>45890</v>
       </c>
@@ -5174,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" s="6">
         <v>45890</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="6">
         <v>45891</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <v>45892</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="18">
+    <row r="131" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <v>45892</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <v>45891</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="6">
         <v>45894</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="18">
+    <row r="134" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A134" s="6">
         <v>45895</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" s="6">
         <v>45895</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="18">
+    <row r="136" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A136" s="6">
         <v>45896</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <v>45898</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" s="6">
         <v>45901</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" s="6">
         <v>45901</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" s="6">
         <v>45901</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" s="6">
         <v>45901</v>
       </c>
@@ -5664,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="18">
+    <row r="142" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <v>45901</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" s="6">
         <v>45901</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="18">
+    <row r="144" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A144" s="6">
         <v>45901</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" s="6">
         <v>45869</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" s="6">
         <v>45904</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" s="6">
         <v>45904</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" s="6">
         <v>45905</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="6">
         <v>45908</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" s="6">
         <v>45913</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" s="6">
         <v>45914</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" s="6">
         <v>45915</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" s="6">
         <v>45915</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <v>45915</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" s="6">
         <v>45915</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <v>45916</v>
       </c>
@@ -6189,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <v>45916</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <v>45915</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" s="6">
         <v>45917</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" s="6">
         <v>45918</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161" s="6">
         <v>45919</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162" s="6">
         <v>45919</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" s="6">
         <v>45924</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" s="6">
         <v>45924</v>
       </c>
@@ -6469,12 +6472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G165" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" s="6">
         <v>45924</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" s="6">
         <v>45927</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168" s="6">
         <v>45929</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169" s="6">
         <v>45900</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" s="6">
         <v>45931</v>
       </c>
@@ -6649,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <v>45933</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" s="6">
         <v>45940</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" s="6">
         <v>45943</v>
       </c>
@@ -6754,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174" s="6">
         <v>45954</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175" s="6">
         <v>45954</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176" s="6">
         <v>45954</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" s="6">
         <v>45960</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" s="6">
         <v>45962</v>
       </c>
@@ -6929,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179" s="6">
         <v>45930</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180" s="6">
         <v>45967</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181" s="6">
         <v>45967</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="18">
+    <row r="182" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A182" s="6">
         <v>45967</v>
       </c>
@@ -7069,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183" s="6">
         <v>45967</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184" s="6">
         <v>45968</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" s="6">
         <v>45968</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" s="6">
         <v>45971</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <v>45971</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188" s="6">
         <v>45971</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189" s="6">
         <v>45972</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190" s="6">
         <v>45974</v>
       </c>
@@ -7349,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191" s="6">
         <v>45975</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192" s="6">
         <v>45976</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" s="6">
         <v>45986</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194" s="6">
         <v>45986</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195" s="6">
         <v>45986</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196" s="6">
         <v>45986</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197" s="6">
         <v>45961</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>101</v>
       </c>
@@ -7620,6 +7623,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H198" xr:uid="{690939F6-98E6-4523-8B9D-5ECEEF771B9F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" copies="0"/>
